--- a/comp_wrong.xlsx
+++ b/comp_wrong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="364">
   <si>
     <t xml:space="preserve">gold_text</t>
   </si>
@@ -584,6 +584,63 @@
     <t xml:space="preserve">(9, 6)</t>
   </si>
   <si>
+    <t xml:space="preserve">Солнце
+смуглой
+рукой
+травы
+ворошит
+,
+В
+золоченой
+печи
+яблоки
+печет
+,
+Каждый
+лист
+на
+ветвях
+золотом
+прошит
+,
+И
+река
+золотой
+лавою
+течет
+.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнце
+смуглой
+рукой
+травы
+ворошит
+,
+В
+золоченой
+печи
+яблоки
+печет
+,
+Каждый
+лист
+на
+ветвях
+золотом
+прошит
+,
+И
+река
+золотой
+лавою
+течет.
+.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 25)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Следственный
 комитет
 завершил
@@ -1489,6 +1546,23 @@
   </si>
   <si>
     <t xml:space="preserve">(23, 21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наиболее
+радикальную
+меру
+борьбы
+...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наиболее
+радикальную
+меру
+борьбы...
+...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 5)</t>
   </si>
   <si>
     <t xml:space="preserve">В
@@ -4661,12 +4735,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T149"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K142" activeCellId="0" sqref="K142"/>
+      <selection pane="bottomLeft" activeCell="H141" activeCellId="0" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5125,14 +5199,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -5141,18 +5215,21 @@
       <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -5161,22 +5238,13 @@
       <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>63</v>
@@ -5185,55 +5253,58 @@
         <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>123</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -5242,18 +5313,24 @@
       <c r="E20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -5262,27 +5339,18 @@
       <c r="E21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -5291,13 +5359,22 @@
       <c r="E22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>77</v>
@@ -5315,14 +5392,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -5331,24 +5408,18 @@
       <c r="E24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -5357,13 +5428,19 @@
       <c r="E25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="F25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>86</v>
@@ -5372,7 +5449,7 @@
         <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>1</v>
@@ -5381,37 +5458,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>174</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>175</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -5420,13 +5494,16 @@
       <c r="E28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>94</v>
@@ -5444,18 +5521,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1</v>
@@ -5464,84 +5541,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>180</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>182</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>193</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>1</v>
@@ -5550,95 +5627,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="B36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>198</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>200</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>212</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="3" t="s">
         <v>116</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>117</v>
@@ -5646,133 +5723,130 @@
       <c r="E39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q39" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>234</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>236</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="B44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>251</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>252</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -5781,176 +5855,182 @@
       <c r="E45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="I45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N45" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="B49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="B50" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="B51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="B52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>299</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>319</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -5959,24 +6039,18 @@
       <c r="E53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q53" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -5985,19 +6059,13 @@
       <c r="E54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q54" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>154</v>
@@ -6017,13 +6085,13 @@
       <c r="J55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K55" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>157</v>
@@ -6032,79 +6100,76 @@
         <v>158</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="E58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>368</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>420</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>165</v>
@@ -6113,154 +6178,160 @@
         <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L59" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K59" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="B62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>445</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="B63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
         <v>457</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="B64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>460</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>462</v>
-      </c>
       <c r="B65" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>1</v>
@@ -6269,41 +6340,38 @@
         <v>1</v>
       </c>
       <c r="L65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M66" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>186</v>
@@ -6323,18 +6391,15 @@
       <c r="L67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M67" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -6343,18 +6408,27 @@
       <c r="E68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q68" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -6363,18 +6437,24 @@
       <c r="E69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -6383,22 +6463,22 @@
       <c r="E70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q70" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>1</v>
@@ -6407,63 +6487,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
         <v>473</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B74" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q74" s="1" t="n">
@@ -6472,706 +6549,703 @@
     </row>
     <row r="75" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
         <v>478</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="B77" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
         <v>479</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="B78" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="B79" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
         <v>482</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="B80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
         <v>483</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="B81" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
         <v>484</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="B82" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
         <v>489</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>491</v>
-      </c>
       <c r="B83" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>84</v>
+        <v>226</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q83" s="1" t="n">
+      <c r="F83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
         <v>492</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="B86" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="E86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
         <v>493</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="B87" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
         <v>503</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="B88" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="B89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
         <v>513</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="B90" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B91" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="E102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
         <v>589</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>605</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>146</v>
+      <c r="C103" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>1</v>
@@ -7182,13 +7256,13 @@
     </row>
     <row r="106" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>40</v>
@@ -7196,6 +7270,9 @@
       <c r="E106" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F106" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J106" s="1" t="n">
         <v>1</v>
       </c>
@@ -7203,308 +7280,299 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="B109" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
         <v>658</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="B110" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
         <v>660</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="B111" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
         <v>663</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="B112" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
         <v>666</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="B113" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
         <v>669</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>675</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>146</v>
+      <c r="C114" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q114" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
         <v>699</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O116" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>726</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>134</v>
+      <c r="C117" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q117" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
         <v>729</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O119" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>741</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>302</v>
@@ -7518,16 +7586,16 @@
       <c r="E120" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F120" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>305</v>
@@ -7536,7 +7604,7 @@
         <v>306</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="E121" s="1" t="n">
         <v>1</v>
@@ -7547,117 +7615,114 @@
       <c r="J121" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K121" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T121" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L121" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>92</v>
+      <c r="C122" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q122" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
         <v>771</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E123" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="B125" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
         <v>778</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E125" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O125" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T125" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>786</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>317</v>
@@ -7666,7 +7731,7 @@
         <v>318</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="E126" s="1" t="n">
         <v>1</v>
@@ -7681,251 +7746,254 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T127" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
         <v>789</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="B129" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
         <v>792</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E128" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T128" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>798</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>124</v>
+      <c r="C130" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="E130" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q130" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
         <v>802</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E131" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T131" s="1" t="s">
+      <c r="B133" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+    <row r="134" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
         <v>805</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E132" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="B134" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
         <v>811</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="B135" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E133" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="D135" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
         <v>828</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E134" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="B136" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
         <v>831</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E135" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O135" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T135" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E136" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>344</v>
@@ -7933,97 +8001,94 @@
       <c r="E137" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q137" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T137" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
         <v>859</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="B140" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
         <v>864</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>871</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>353</v>
@@ -8043,16 +8108,13 @@
       <c r="J141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>356</v>
@@ -8061,7 +8123,7 @@
         <v>357</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="E142" s="1" t="n">
         <v>1</v>
@@ -8069,112 +8131,170 @@
       <c r="F142" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="E143" s="1" t="n">
-        <f aca="false">SUM(E1:E142)</f>
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="F143" s="1" t="n">
-        <f aca="false">SUM(F1:F142)</f>
-        <v>62</v>
-      </c>
-      <c r="G143" s="1" t="n">
-        <f aca="false">SUM(G1:G142)</f>
+        <v>1</v>
+      </c>
+      <c r="J143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="1" t="n">
+        <f aca="false">SUM(E1:E144)</f>
+        <v>143</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <f aca="false">SUM(F1:F144)</f>
+        <v>64</v>
+      </c>
+      <c r="G145" s="1" t="n">
+        <f aca="false">SUM(G1:G144)</f>
         <v>7</v>
       </c>
-      <c r="H143" s="1" t="n">
-        <f aca="false">SUM(H1:H142)</f>
-        <v>2</v>
-      </c>
-      <c r="I143" s="1" t="n">
-        <f aca="false">SUM(I1:I142)</f>
+      <c r="H145" s="1" t="n">
+        <f aca="false">SUM(H1:H144)</f>
+        <v>4</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <f aca="false">SUM(I1:I144)</f>
         <v>10</v>
       </c>
-      <c r="J143" s="1" t="n">
-        <f aca="false">SUM(J1:J142)</f>
+      <c r="J145" s="1" t="n">
+        <f aca="false">SUM(J1:J144)</f>
         <v>76</v>
       </c>
-      <c r="K143" s="1" t="n">
-        <f aca="false">SUM(K1:K142)</f>
+      <c r="K145" s="1" t="n">
+        <f aca="false">SUM(K1:K144)</f>
         <v>28</v>
       </c>
-      <c r="L143" s="1" t="n">
-        <f aca="false">SUM(L1:L142)</f>
+      <c r="L145" s="1" t="n">
+        <f aca="false">SUM(L1:L144)</f>
         <v>20</v>
       </c>
-      <c r="M143" s="1" t="n">
-        <f aca="false">SUM(M1:M142)</f>
+      <c r="M145" s="1" t="n">
+        <f aca="false">SUM(M1:M144)</f>
         <v>11</v>
       </c>
-      <c r="N143" s="1" t="n">
-        <f aca="false">SUM(N1:N142)</f>
+      <c r="N145" s="1" t="n">
+        <f aca="false">SUM(N1:N144)</f>
         <v>13</v>
       </c>
-      <c r="O143" s="1" t="n">
-        <f aca="false">SUM(O1:O142)</f>
+      <c r="O145" s="1" t="n">
+        <f aca="false">SUM(O1:O144)</f>
         <v>15</v>
       </c>
-      <c r="P143" s="1" t="n">
-        <f aca="false">SUM(P1:P142)</f>
+      <c r="P145" s="1" t="n">
+        <f aca="false">SUM(P1:P144)</f>
         <v>0</v>
       </c>
-      <c r="Q143" s="1" t="n">
-        <f aca="false">SUM(Q1:Q142)</f>
+      <c r="Q145" s="1" t="n">
+        <f aca="false">SUM(Q1:Q144)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="4" t="n">
-        <f aca="false">F143/881</f>
-        <v>0.0703745743473326</v>
-      </c>
-      <c r="G144" s="4" t="n">
-        <f aca="false">G143/881</f>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="4" t="n">
+        <f aca="false">F145/881</f>
+        <v>0.072644721906924</v>
+      </c>
+      <c r="G146" s="4" t="n">
+        <f aca="false">G145/881</f>
         <v>0.00794551645856981</v>
       </c>
-      <c r="H144" s="4" t="n">
-        <f aca="false">H143/881</f>
-        <v>0.00227014755959137</v>
-      </c>
-      <c r="I144" s="4" t="n">
-        <f aca="false">I143/881</f>
+      <c r="H146" s="4" t="n">
+        <f aca="false">H145/881</f>
+        <v>0.00454029511918275</v>
+      </c>
+      <c r="I146" s="4" t="n">
+        <f aca="false">I145/881</f>
         <v>0.0113507377979569</v>
       </c>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4" t="n">
-        <f aca="false">K143/881</f>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4" t="n">
+        <f aca="false">K145/881</f>
         <v>0.0317820658342792</v>
       </c>
-      <c r="L144" s="4" t="n">
-        <f aca="false">L143/881</f>
+      <c r="L146" s="4" t="n">
+        <f aca="false">L145/881</f>
         <v>0.0227014755959137</v>
       </c>
-      <c r="M144" s="4" t="n">
-        <f aca="false">M143/881</f>
+      <c r="M146" s="4" t="n">
+        <f aca="false">M145/881</f>
         <v>0.0124858115777526</v>
       </c>
-      <c r="N144" s="4" t="n">
-        <f aca="false">N143/881</f>
+      <c r="N146" s="4" t="n">
+        <f aca="false">N145/881</f>
         <v>0.0147559591373439</v>
       </c>
-      <c r="O144" s="4" t="n">
-        <f aca="false">O143/881</f>
+      <c r="O146" s="4" t="n">
+        <f aca="false">O145/881</f>
         <v>0.0170261066969353</v>
       </c>
-      <c r="P144" s="4" t="n">
-        <f aca="false">P143/881</f>
+      <c r="P146" s="4" t="n">
+        <f aca="false">P145/881</f>
         <v>0</v>
       </c>
-      <c r="Q144" s="4" t="n">
-        <f aca="false">Q143/881</f>
+      <c r="Q146" s="4" t="n">
+        <f aca="false">Q145/881</f>
         <v>0.0635641316685585</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H149" s="1" t="n">
-        <f aca="false">SUM(F143:I143)+SUM(K143:O143)+Q143</f>
-        <v>224</v>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="1" t="n">
+        <f aca="false">SUM(F145:I145)+SUM(K145:O145)+Q145</f>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
